--- a/outputs-HGR-r202-archive/g__Eubacterium_G.xlsx
+++ b/outputs-HGR-r202-archive/g__Eubacterium_G.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,79 +587,79 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT49526.fa</t>
+          <t>even_MAG-GUT646.fa</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.001482928407219959</v>
+        <v>0.001196968578360509</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003456294105168816</v>
+        <v>0.00280238075765411</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02232571714006612</v>
+        <v>0.3450328918729691</v>
       </c>
       <c r="E4" t="n">
-        <v>0.07383358092739029</v>
+        <v>0.07671682519641393</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0445089795298603</v>
+        <v>0.007680147632934689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1257219702981866</v>
+        <v>0.11633562448828</v>
       </c>
       <c r="H4" t="n">
-        <v>0.4699582505507686</v>
+        <v>0.1732426102431077</v>
       </c>
       <c r="I4" t="n">
-        <v>0.2587122790413393</v>
+        <v>0.2769925512302798</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4699582505507686</v>
+        <v>0.3450328918729691</v>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G sp900556905</t>
+          <t>s__Eubacterium_G sp000435815</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G sp900556905</t>
+          <t>s__Eubacterium_G sp000435815</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT646.fa</t>
+          <t>even_MAG-GUT80705.fa</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.001196968578360509</v>
+        <v>0.005924865260593268</v>
       </c>
       <c r="C5" t="n">
-        <v>0.00280238075765411</v>
+        <v>0.008016273446195026</v>
       </c>
       <c r="D5" t="n">
-        <v>0.3450328918729691</v>
+        <v>0.4980568584153696</v>
       </c>
       <c r="E5" t="n">
-        <v>0.07671682519641393</v>
+        <v>0.07137173178273983</v>
       </c>
       <c r="F5" t="n">
-        <v>0.007680147632934689</v>
+        <v>0.0003611207110889653</v>
       </c>
       <c r="G5" t="n">
-        <v>0.11633562448828</v>
+        <v>0.1059155453319628</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1732426102431077</v>
+        <v>0.1428330806465769</v>
       </c>
       <c r="I5" t="n">
-        <v>0.2769925512302798</v>
+        <v>0.1675205244054735</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3450328918729691</v>
+        <v>0.4980568584153696</v>
       </c>
       <c r="K5" t="inlineStr">
         <is>
@@ -675,35 +675,35 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT80705.fa</t>
+          <t>even_MAG-GUT81000.fa</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.005924865260593268</v>
+        <v>0.00205048844202698</v>
       </c>
       <c r="C6" t="n">
-        <v>0.008016273446195026</v>
+        <v>0.001145708427365134</v>
       </c>
       <c r="D6" t="n">
-        <v>0.4980568584153696</v>
+        <v>0.4753770661906029</v>
       </c>
       <c r="E6" t="n">
-        <v>0.07137173178273983</v>
+        <v>0.01034053043653876</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0003611207110889653</v>
+        <v>0.001520707571845807</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1059155453319628</v>
+        <v>0.1522053595627262</v>
       </c>
       <c r="H6" t="n">
-        <v>0.1428330806465769</v>
+        <v>0.130090351896449</v>
       </c>
       <c r="I6" t="n">
-        <v>0.1675205244054735</v>
+        <v>0.2272697874724453</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4980568584153696</v>
+        <v>0.4753770661906029</v>
       </c>
       <c r="K6" t="inlineStr">
         <is>
@@ -719,130 +719,86 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81000.fa</t>
+          <t>even_MAG-GUT81065.fa</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.00205048844202698</v>
+        <v>0.007877040178397465</v>
       </c>
       <c r="C7" t="n">
-        <v>0.001145708427365134</v>
+        <v>0.001277226347669756</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4753770661906029</v>
+        <v>0.250532252444532</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01034053043653876</v>
+        <v>0.1121876112061674</v>
       </c>
       <c r="F7" t="n">
-        <v>0.001520707571845807</v>
+        <v>0.009514659356766137</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1522053595627262</v>
+        <v>0.1331005779102696</v>
       </c>
       <c r="H7" t="n">
-        <v>0.130090351896449</v>
+        <v>0.1972990827780546</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2272697874724453</v>
+        <v>0.2882115497781431</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4753770661906029</v>
+        <v>0.2882115497781431</v>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G sp000435815</t>
+          <t>s__Eubacterium_G ventriosum</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G sp000435815</t>
+          <t>s__Eubacterium_G ventriosum</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>even_MAG-GUT81065.fa</t>
+          <t>even_MAG-GUT81692.fa</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.007877040178397465</v>
+        <v>0.003649382634756253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001277226347669756</v>
+        <v>0.002923165261793361</v>
       </c>
       <c r="D8" t="n">
-        <v>0.250532252444532</v>
+        <v>0.407911887031916</v>
       </c>
       <c r="E8" t="n">
-        <v>0.1121876112061674</v>
+        <v>0.02708647054069383</v>
       </c>
       <c r="F8" t="n">
-        <v>0.009514659356766137</v>
+        <v>0.000736119550388307</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1331005779102696</v>
+        <v>0.1027214971065064</v>
       </c>
       <c r="H8" t="n">
-        <v>0.1972990827780546</v>
+        <v>0.146612462713839</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2882115497781431</v>
+        <v>0.308359015160107</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2882115497781431</v>
+        <v>0.407911887031916</v>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>s__Eubacterium_G ventriosum</t>
+          <t>s__Eubacterium_G sp000435815</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_G ventriosum</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>even_MAG-GUT81692.fa</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>0.003649382634756253</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.002923165261793361</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.407911887031916</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.02708647054069383</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.000736119550388307</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.1027214971065064</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.146612462713839</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.308359015160107</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.407911887031916</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>s__Eubacterium_G sp000435815</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
         <is>
           <t>s__Eubacterium_G sp000435815</t>
         </is>
